--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="108">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,235 +55,286 @@
     <t>panic</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>today</t>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>employees</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>health</t>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>uk</t>
   </si>
   <si>
     <t>toilet</t>
   </si>
   <si>
-    <t>essential</t>
+    <t>keep</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
+    <t>market</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
+    <t>see</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>paper</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>get</t>
   </si>
   <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>time</t>
+    <t>people</t>
   </si>
   <si>
     <t>go</t>
-  </si>
-  <si>
-    <t>people</t>
   </si>
   <si>
     <t>food</t>
@@ -644,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,10 +703,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -734,16 +785,16 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9152542372881356</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -755,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -763,13 +814,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6666666666666666</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -781,31 +832,31 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.8717948717948718</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="N4">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -834,28 +885,28 @@
         <v>100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.8666666666666667</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L5">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="N5">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -863,13 +914,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3466666666666667</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -881,31 +932,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8623853211009175</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N6">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -913,13 +964,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2577519379844961</v>
+        <v>0.248062015503876</v>
       </c>
       <c r="C7">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D7">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -931,171 +982,123 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8582677165354331</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M7">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="N7">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.0136518771331058</v>
-      </c>
-      <c r="C8">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>409</v>
-      </c>
-      <c r="E8">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F8">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1734</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="M8">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="N8">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>0.8292682926829268</v>
+      </c>
+      <c r="L9">
+        <v>68</v>
+      </c>
+      <c r="M9">
+        <v>68</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.009916699722332408</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>611</v>
-      </c>
-      <c r="E9">
-        <v>0.96</v>
-      </c>
-      <c r="F9">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>2496</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9">
-        <v>0.7848101265822784</v>
-      </c>
-      <c r="L9">
-        <v>124</v>
-      </c>
-      <c r="M9">
-        <v>126</v>
-      </c>
-      <c r="N9">
-        <v>0.98</v>
-      </c>
-      <c r="O9">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.73</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L10">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="M10">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="N10">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7112676056338029</v>
+        <v>0.7875</v>
       </c>
       <c r="L11">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="M11">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1107,99 +1110,99 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7017543859649122</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N12">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.6813186813186813</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="N13">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <v>0.7452830188679245</v>
+      </c>
+      <c r="L14">
+        <v>79</v>
+      </c>
+      <c r="M14">
+        <v>79</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>27</v>
-      </c>
-      <c r="K14">
-        <v>0.6810344827586207</v>
-      </c>
-      <c r="L14">
-        <v>158</v>
-      </c>
-      <c r="M14">
-        <v>165</v>
-      </c>
-      <c r="N14">
-        <v>0.96</v>
-      </c>
-      <c r="O14">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.6349206349206349</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1211,21 +1214,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.6111111111111112</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1237,21 +1240,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.5957446808510638</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1263,255 +1266,255 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.5920245398773006</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L18">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="M18">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="N18">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>133</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.5695538057742782</v>
+        <v>0.6830985915492958</v>
       </c>
       <c r="L19">
-        <v>217</v>
+        <v>97</v>
       </c>
       <c r="M19">
-        <v>219</v>
+        <v>97</v>
       </c>
       <c r="N19">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>164</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.5441176470588235</v>
+        <v>0.6778242677824268</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="N20">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>31</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.5416666666666666</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L21">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="N21">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>132</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.4886363636363636</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L22">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="M22">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="N22">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>45</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.4523809523809524</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="N23">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.4126984126984127</v>
+        <v>0.5718015665796344</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="M24">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="N24">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>37</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.4113924050632912</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L25">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="N25">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>93</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.4042553191489361</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="N26">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.392156862745098</v>
+        <v>0.5389830508474577</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1523,47 +1526,47 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>31</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.3679245283018868</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L28">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="N28">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>134</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.359375</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1575,73 +1578,73 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.3333333333333333</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L30">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="M30">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="N30">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>108</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.3268292682926829</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="L31">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="M31">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="N31">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>276</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.3220338983050847</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1653,21 +1656,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.3217391304347826</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1679,73 +1682,73 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>0.3052631578947368</v>
+        <v>0.390625</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>0.2903225806451613</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M35">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N35">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>0.2682926829268293</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1757,151 +1760,151 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>0.267515923566879</v>
+        <v>0.3627906976744186</v>
       </c>
       <c r="L37">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="M37">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="N37">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K38">
-        <v>0.25</v>
+        <v>0.3516746411483254</v>
       </c>
       <c r="L38">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="M38">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="N38">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>99</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K39">
-        <v>0.25</v>
+        <v>0.3402061855670103</v>
       </c>
       <c r="L39">
         <v>33</v>
       </c>
       <c r="M39">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N39">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K40">
-        <v>0.25</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L40">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M40">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>102</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K41">
-        <v>0.2454545454545455</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L41">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N41">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>83</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K42">
-        <v>0.2417582417582418</v>
+        <v>0.3308270676691729</v>
       </c>
       <c r="L42">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M42">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1913,73 +1916,73 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K43">
-        <v>0.2405660377358491</v>
+        <v>0.3251533742331288</v>
       </c>
       <c r="L43">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M43">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N43">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>161</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K44">
-        <v>0.2293388429752066</v>
+        <v>0.3129770992366412</v>
       </c>
       <c r="L44">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="M44">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="N44">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>373</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K45">
-        <v>0.2244897959183673</v>
+        <v>0.3069306930693069</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1991,21 +1994,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K46">
-        <v>0.2237762237762238</v>
+        <v>0.3048780487804878</v>
       </c>
       <c r="L46">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M46">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2017,125 +2020,125 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>111</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K47">
-        <v>0.2219512195121951</v>
+        <v>0.2992700729927008</v>
       </c>
       <c r="L47">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="M47">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="N47">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>319</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K48">
-        <v>0.219672131147541</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="L48">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M48">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N48">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>238</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K49">
-        <v>0.2149532710280374</v>
+        <v>0.2767295597484277</v>
       </c>
       <c r="L49">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="M49">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="N49">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>252</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K50">
-        <v>0.2130777903043968</v>
+        <v>0.2763157894736842</v>
       </c>
       <c r="L50">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="M50">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>698</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K51">
-        <v>0.2108843537414966</v>
+        <v>0.2761194029850746</v>
       </c>
       <c r="L51">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M51">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2147,67 +2150,67 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K52">
-        <v>0.2020089285714286</v>
+        <v>0.2680412371134021</v>
       </c>
       <c r="L52">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="M52">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="N52">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>715</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K53">
-        <v>0.2011661807580175</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="L53">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="M53">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="N53">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>274</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K54">
-        <v>0.198019801980198</v>
+        <v>0.2531645569620253</v>
       </c>
       <c r="L54">
         <v>20</v>
@@ -2225,21 +2228,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K55">
-        <v>0.191304347826087</v>
+        <v>0.2451923076923077</v>
       </c>
       <c r="L55">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="M55">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2251,111 +2254,111 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>186</v>
+        <v>314</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="K56">
-        <v>0.1901362751460091</v>
+        <v>0.2402597402597403</v>
       </c>
       <c r="L56">
-        <v>586</v>
+        <v>74</v>
       </c>
       <c r="M56">
-        <v>611</v>
+        <v>74</v>
       </c>
       <c r="N56">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>2496</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K57">
-        <v>0.1891891891891892</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L57">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M57">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N57">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>90</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K58">
-        <v>0.186046511627907</v>
+        <v>0.2347826086956522</v>
       </c>
       <c r="L58">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M58">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="N58">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>105</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="K59">
-        <v>0.1816894761680038</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="L59">
-        <v>385</v>
+        <v>26</v>
       </c>
       <c r="M59">
-        <v>409</v>
+        <v>26</v>
       </c>
       <c r="N59">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>1734</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2363,25 +2366,25 @@
         <v>71</v>
       </c>
       <c r="K60">
-        <v>0.1787610619469027</v>
+        <v>0.2320916905444126</v>
       </c>
       <c r="L60">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="M60">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="N60">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>464</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2389,25 +2392,25 @@
         <v>72</v>
       </c>
       <c r="K61">
-        <v>0.176</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="L61">
         <v>22</v>
       </c>
       <c r="M61">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N61">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>103</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2415,13 +2418,13 @@
         <v>73</v>
       </c>
       <c r="K62">
-        <v>0.1757575757575758</v>
+        <v>0.2242798353909465</v>
       </c>
       <c r="L62">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="M62">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2433,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>136</v>
+        <v>377</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2441,13 +2444,13 @@
         <v>74</v>
       </c>
       <c r="K63">
-        <v>0.1724137931034483</v>
+        <v>0.2237762237762238</v>
       </c>
       <c r="L63">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M63">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2459,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2467,25 +2470,25 @@
         <v>75</v>
       </c>
       <c r="K64">
-        <v>0.1709401709401709</v>
+        <v>0.2237136465324385</v>
       </c>
       <c r="L64">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="M64">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="N64">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>97</v>
+        <v>694</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2493,25 +2496,25 @@
         <v>76</v>
       </c>
       <c r="K65">
-        <v>0.1625386996904025</v>
+        <v>0.2201834862385321</v>
       </c>
       <c r="L65">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="M65">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="N65">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>541</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2519,25 +2522,25 @@
         <v>77</v>
       </c>
       <c r="K66">
-        <v>0.1584699453551913</v>
+        <v>0.2155172413793103</v>
       </c>
       <c r="L66">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M66">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N66">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>154</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2545,25 +2548,25 @@
         <v>78</v>
       </c>
       <c r="K67">
-        <v>0.1574468085106383</v>
+        <v>0.2151898734177215</v>
       </c>
       <c r="L67">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="M67">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="N67">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2571,25 +2574,25 @@
         <v>79</v>
       </c>
       <c r="K68">
-        <v>0.1541353383458647</v>
+        <v>0.2100840336134454</v>
       </c>
       <c r="L68">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M68">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="N68">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>225</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2597,25 +2600,25 @@
         <v>80</v>
       </c>
       <c r="K69">
-        <v>0.1403712296983759</v>
+        <v>0.2079510703363914</v>
       </c>
       <c r="L69">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="M69">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="N69">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>741</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2623,13 +2626,13 @@
         <v>81</v>
       </c>
       <c r="K70">
-        <v>0.1162790697674419</v>
+        <v>0.2008407286314806</v>
       </c>
       <c r="L70">
-        <v>20</v>
+        <v>430</v>
       </c>
       <c r="M70">
-        <v>20</v>
+        <v>432</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2638,10 +2641,10 @@
         <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>152</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2649,25 +2652,25 @@
         <v>82</v>
       </c>
       <c r="K71">
-        <v>0.1130598183526464</v>
+        <v>0.1996136509980682</v>
       </c>
       <c r="L71">
-        <v>361</v>
+        <v>620</v>
       </c>
       <c r="M71">
-        <v>369</v>
+        <v>621</v>
       </c>
       <c r="N71">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>2832</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2675,25 +2678,25 @@
         <v>83</v>
       </c>
       <c r="K72">
-        <v>0.1106194690265487</v>
+        <v>0.1968503937007874</v>
       </c>
       <c r="L72">
         <v>25</v>
       </c>
       <c r="M72">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N72">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>201</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2701,25 +2704,25 @@
         <v>84</v>
       </c>
       <c r="K73">
-        <v>0.09508196721311475</v>
+        <v>0.1946902654867257</v>
       </c>
       <c r="L73">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M73">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N73">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>276</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2727,25 +2730,25 @@
         <v>85</v>
       </c>
       <c r="K74">
-        <v>0.09169550173010381</v>
+        <v>0.1897891231964484</v>
       </c>
       <c r="L74">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="M74">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="N74">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>1050</v>
+        <v>730</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2753,25 +2756,25 @@
         <v>86</v>
       </c>
       <c r="K75">
-        <v>0.08928571428571429</v>
+        <v>0.1837837837837838</v>
       </c>
       <c r="L75">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M75">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N75">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>204</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2779,25 +2782,25 @@
         <v>87</v>
       </c>
       <c r="K76">
-        <v>0.07142857142857142</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="L76">
         <v>20</v>
       </c>
       <c r="M76">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N76">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>260</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2805,25 +2808,25 @@
         <v>88</v>
       </c>
       <c r="K77">
-        <v>0.06983240223463687</v>
+        <v>0.1781305114638448</v>
       </c>
       <c r="L77">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="M77">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="N77">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>333</v>
+        <v>466</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2831,25 +2834,25 @@
         <v>89</v>
       </c>
       <c r="K78">
-        <v>0.06111111111111111</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L78">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M78">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N78">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>507</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2857,25 +2860,467 @@
         <v>90</v>
       </c>
       <c r="K79">
-        <v>0.04821802935010482</v>
+        <v>0.1696969696969697</v>
       </c>
       <c r="L79">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M79">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="N79">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>908</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K80">
+        <v>0.1676923076923077</v>
+      </c>
+      <c r="L80">
+        <v>109</v>
+      </c>
+      <c r="M80">
+        <v>109</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K81">
+        <v>0.1610486891385768</v>
+      </c>
+      <c r="L81">
+        <v>43</v>
+      </c>
+      <c r="M81">
+        <v>43</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K82">
+        <v>0.1472868217054264</v>
+      </c>
+      <c r="L82">
+        <v>19</v>
+      </c>
+      <c r="M82">
+        <v>19</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K83">
+        <v>0.1430219146482122</v>
+      </c>
+      <c r="L83">
+        <v>124</v>
+      </c>
+      <c r="M83">
+        <v>124</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K84">
+        <v>0.1402439024390244</v>
+      </c>
+      <c r="L84">
+        <v>23</v>
+      </c>
+      <c r="M84">
+        <v>23</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K85">
+        <v>0.1395348837209302</v>
+      </c>
+      <c r="L85">
+        <v>24</v>
+      </c>
+      <c r="M85">
+        <v>24</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K86">
+        <v>0.1376811594202899</v>
+      </c>
+      <c r="L86">
+        <v>19</v>
+      </c>
+      <c r="M86">
+        <v>19</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K87">
+        <v>0.1144578313253012</v>
+      </c>
+      <c r="L87">
+        <v>19</v>
+      </c>
+      <c r="M87">
+        <v>19</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K88">
+        <v>0.1140268666041862</v>
+      </c>
+      <c r="L88">
+        <v>365</v>
+      </c>
+      <c r="M88">
+        <v>365</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K89">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L89">
+        <v>25</v>
+      </c>
+      <c r="M89">
+        <v>25</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K90">
+        <v>0.1101321585903084</v>
+      </c>
+      <c r="L90">
+        <v>25</v>
+      </c>
+      <c r="M90">
+        <v>25</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K91">
+        <v>0.099644128113879</v>
+      </c>
+      <c r="L91">
+        <v>28</v>
+      </c>
+      <c r="M91">
+        <v>28</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K92">
+        <v>0.08527131782945736</v>
+      </c>
+      <c r="L92">
+        <v>99</v>
+      </c>
+      <c r="M92">
+        <v>99</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K93">
+        <v>0.08496732026143791</v>
+      </c>
+      <c r="L93">
+        <v>26</v>
+      </c>
+      <c r="M93">
+        <v>26</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K94">
+        <v>0.07522935779816514</v>
+      </c>
+      <c r="L94">
+        <v>41</v>
+      </c>
+      <c r="M94">
+        <v>41</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17">
+      <c r="J95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K95">
+        <v>0.07222222222222222</v>
+      </c>
+      <c r="L95">
+        <v>26</v>
+      </c>
+      <c r="M95">
+        <v>26</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17">
+      <c r="J96" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K96">
+        <v>0.05268595041322314</v>
+      </c>
+      <c r="L96">
+        <v>51</v>
+      </c>
+      <c r="M96">
+        <v>51</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>917</v>
       </c>
     </row>
   </sheetData>
